--- a/data/raw/implan/implan-categories.xlsx
+++ b/data/raw/implan/implan-categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\_coh2o\data\raw\implan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B576259-ED33-46C3-A153-ACD278D1FE95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28206C94-52D8-4C4D-B9A3-1881384FC8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1050" windowWidth="26565" windowHeight="15435" activeTab="1" xr2:uid="{9CC29CFA-28CF-4527-A95F-E6B339D549A6}"/>
+    <workbookView xWindow="24000" yWindow="1125" windowWidth="19500" windowHeight="15435" activeTab="1" xr2:uid="{9CC29CFA-28CF-4527-A95F-E6B339D549A6}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
   <si>
     <t>The allocations were based on those used in recent projects (OIA, National Survey, etc.)</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>recreate</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
   <si>
     <t>oia</t>
@@ -1173,16 +1170,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1190,16 +1187,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>0.56999999999999995</v>
@@ -1207,16 +1204,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>0.43</v>
@@ -1224,16 +1221,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>0.9</v>
@@ -1241,16 +1238,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>0.05</v>
@@ -1258,16 +1255,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>0.05</v>
@@ -1275,16 +1272,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1292,16 +1289,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1309,16 +1306,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1326,16 +1323,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1343,16 +1340,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1360,16 +1357,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1377,16 +1374,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1394,16 +1391,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1411,16 +1408,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1428,16 +1425,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1445,16 +1442,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1462,16 +1459,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1">
         <v>0.5</v>
@@ -1479,16 +1476,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
@@ -1496,16 +1493,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1513,16 +1510,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1530,16 +1527,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1547,16 +1544,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1564,16 +1561,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1">
         <v>0.5</v>
@@ -1581,16 +1578,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1">
         <v>0.5</v>
@@ -1598,16 +1595,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1615,16 +1612,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1632,16 +1629,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1649,16 +1646,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1666,16 +1663,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1683,16 +1680,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1700,16 +1697,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1717,16 +1714,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1734,16 +1731,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1751,16 +1748,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1768,16 +1765,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1785,16 +1782,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1802,16 +1799,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1819,16 +1816,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1836,16 +1833,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="1">
         <v>0.5</v>
@@ -1853,16 +1850,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1">
         <v>0.5</v>
@@ -1870,16 +1867,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1887,16 +1884,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1904,16 +1901,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1921,16 +1918,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1938,16 +1935,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -1955,16 +1952,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1972,16 +1969,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1989,16 +1986,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2006,16 +2003,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -2023,16 +2020,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2040,16 +2037,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2057,16 +2054,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -2074,16 +2071,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2091,16 +2088,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2108,16 +2105,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -2125,16 +2122,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2142,16 +2139,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2159,16 +2156,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2176,16 +2173,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
@@ -2193,16 +2190,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2210,16 +2207,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2227,16 +2224,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2244,16 +2241,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2261,16 +2258,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -2278,16 +2275,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2295,16 +2292,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
@@ -2312,16 +2309,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
@@ -2329,16 +2326,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
@@ -2346,16 +2343,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" s="1">
         <v>0.5</v>
@@ -2363,16 +2360,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E71" s="1">
         <v>0.5</v>
@@ -2380,16 +2377,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
@@ -2397,16 +2394,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
@@ -2414,16 +2411,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="1">
         <v>1</v>
@@ -2431,16 +2428,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -2448,16 +2445,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E76" s="1">
         <v>1</v>
@@ -2465,16 +2462,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
@@ -2482,16 +2479,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
@@ -2499,16 +2496,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E79" s="1">
         <v>1</v>
@@ -2516,16 +2513,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
@@ -2533,16 +2530,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E81" s="1">
         <v>1</v>
@@ -2550,16 +2547,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
@@ -2567,16 +2564,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
@@ -2584,16 +2581,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E84" s="1">
         <v>1</v>
@@ -2601,16 +2598,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
@@ -2618,16 +2615,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E86" s="1">
         <v>1</v>
@@ -2635,16 +2632,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
@@ -2652,16 +2649,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2669,16 +2666,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -2686,16 +2683,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
@@ -2703,16 +2700,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
@@ -2720,16 +2717,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2737,16 +2734,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E93" s="1">
         <v>1</v>
@@ -2754,16 +2751,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
@@ -2771,16 +2768,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
@@ -2788,16 +2785,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
@@ -2805,16 +2802,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
@@ -2822,16 +2819,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
@@ -2839,16 +2836,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E99" s="1">
         <v>1</v>
@@ -2856,16 +2853,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
@@ -2873,16 +2870,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -2890,16 +2887,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E102" s="1">
         <v>1</v>
@@ -2907,16 +2904,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -2924,16 +2921,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E104" s="1">
         <v>1</v>
@@ -2941,16 +2938,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
@@ -2958,16 +2955,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
@@ -2975,16 +2972,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" s="1">
         <v>0.5</v>
@@ -2992,16 +2989,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" s="1">
         <v>0.5</v>
@@ -3009,16 +3006,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3026,16 +3023,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
@@ -3043,16 +3040,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -3060,16 +3057,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -3077,16 +3074,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -3094,16 +3091,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
@@ -3111,16 +3108,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3128,16 +3125,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3145,16 +3142,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -3162,16 +3159,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E118" s="1">
         <v>1</v>
@@ -3179,16 +3176,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E119" s="1">
         <v>1</v>
@@ -3196,16 +3193,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E120" s="1">
         <v>1</v>
@@ -3213,16 +3210,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -3230,16 +3227,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -3247,16 +3244,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -3264,16 +3261,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -3281,16 +3278,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -3298,16 +3295,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -3315,16 +3312,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
@@ -3332,16 +3329,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -3349,16 +3346,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E129" s="1">
         <v>1</v>
@@ -3366,16 +3363,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
@@ -3383,16 +3380,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E131" s="1">
         <v>1</v>
@@ -3400,16 +3397,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E132" s="1">
         <v>1</v>
@@ -3417,16 +3414,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
@@ -3434,16 +3431,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E134" s="1">
         <v>1</v>
@@ -3451,16 +3448,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -3468,16 +3465,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -3485,16 +3482,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -3502,16 +3499,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
@@ -3519,16 +3516,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
@@ -3536,16 +3533,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -3553,16 +3550,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E141" s="1">
         <v>1</v>
@@ -3570,16 +3567,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
@@ -3587,16 +3584,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
@@ -3604,16 +3601,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
@@ -3621,16 +3618,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
@@ -3638,16 +3635,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E146" s="1">
         <v>1</v>
@@ -3655,16 +3652,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
@@ -3672,16 +3669,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -3689,16 +3686,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
@@ -3706,16 +3703,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -3723,16 +3720,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
@@ -3755,7 +3752,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,7 +3763,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,18 +3773,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,15 +3792,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,12 +3808,12 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
